--- a/medicine/Pharmacie/Mitapivat/Mitapivat.xlsx
+++ b/medicine/Pharmacie/Mitapivat/Mitapivat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mitapivat est un médicament, activateur de la pyruvate kinase des hématies et donné en cas de déficit en cet enzyme.
 </t>
@@ -511,9 +523,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il augmente l'activité de la pyruvate kinase, même dans ses formes mutantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il augmente l'activité de la pyruvate kinase, même dans ses formes mutantes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet une augmentation du taux de l'hémoglobine chez les patients porteurs d'un déficit en pyruvate kinase[2].
-Il est en cours de test dans les thalassémies alpha et bêta[3] ainsi que dans les drépanocytoses[4], montrant également une augmentation du taux de l'hémoglobine.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet une augmentation du taux de l'hémoglobine chez les patients porteurs d'un déficit en pyruvate kinase.
+Il est en cours de test dans les thalassémies alpha et bêta ainsi que dans les drépanocytoses, montrant également une augmentation du taux de l'hémoglobine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux sont la survenue de céphalées et d'insomnies à l'instauration du traitement, rapidement régressives[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux sont la survenue de céphalées et d'insomnies à l'instauration du traitement, rapidement régressives.
 </t>
         </is>
       </c>
